--- a/jedzenie.xlsx
+++ b/jedzenie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
   <si>
     <t>składniki</t>
   </si>
@@ -256,6 +256,123 @@
   </si>
   <si>
     <t>dania</t>
+  </si>
+  <si>
+    <t>skladniki</t>
+  </si>
+  <si>
+    <t>pic_jesc</t>
+  </si>
+  <si>
+    <t>pić</t>
+  </si>
+  <si>
+    <t>jeść</t>
+  </si>
+  <si>
+    <t>smak</t>
+  </si>
+  <si>
+    <t>słony</t>
+  </si>
+  <si>
+    <t>gorzki</t>
+  </si>
+  <si>
+    <t>słodki</t>
+  </si>
+  <si>
+    <t>kwaśny</t>
+  </si>
+  <si>
+    <t>czas</t>
+  </si>
+  <si>
+    <t>0 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>więcej</t>
+  </si>
+  <si>
+    <t>sprzet</t>
+  </si>
+  <si>
+    <t>kuchenka</t>
+  </si>
+  <si>
+    <t>grill</t>
+  </si>
+  <si>
+    <t>piekarnik</t>
+  </si>
+  <si>
+    <t>mikrofalówka</t>
+  </si>
+  <si>
+    <t>garnek</t>
+  </si>
+  <si>
+    <t>patelnia</t>
+  </si>
+  <si>
+    <t>toster</t>
+  </si>
+  <si>
+    <t>czajnik</t>
+  </si>
+  <si>
+    <t>frytkownica</t>
+  </si>
+  <si>
+    <t>cieplo_zimno</t>
+  </si>
+  <si>
+    <t>ciepło</t>
+  </si>
+  <si>
+    <t>zimno</t>
+  </si>
+  <si>
+    <t>wegetarianskie</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>zmywanie</t>
+  </si>
+  <si>
+    <t>glodny</t>
+  </si>
+  <si>
+    <t>lekko</t>
+  </si>
+  <si>
+    <t>średnio</t>
+  </si>
+  <si>
+    <t>bardzo</t>
+  </si>
+  <si>
+    <t>bogato</t>
+  </si>
+  <si>
+    <t>tak, na bogato</t>
+  </si>
+  <si>
+    <t>bieda</t>
   </si>
 </sst>
 </file>
@@ -272,12 +389,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,8 +463,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -597,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,12 +1132,433 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:BS5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BP21" sqref="BP21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:71" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="3:71" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/jedzenie.xlsx
+++ b/jedzenie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$M$3:$M$44</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
   <si>
     <t>składniki</t>
   </si>
@@ -400,10 +405,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -481,8 +504,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -496,8 +531,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="13">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Standardowy" xfId="0" builtinId="0"/>
+    <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -798,18 +845,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M44" sqref="M4:M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="8" max="9" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="8:13">
       <c r="H3" t="s">
         <v>0</v>
       </c>
@@ -817,7 +864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="8:13">
       <c r="H4" t="s">
         <v>32</v>
       </c>
@@ -825,7 +872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:13">
       <c r="H5" t="s">
         <v>50</v>
       </c>
@@ -836,7 +883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:13">
       <c r="H6" t="s">
         <v>9</v>
       </c>
@@ -844,7 +891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:13">
       <c r="H7" t="s">
         <v>3</v>
       </c>
@@ -855,7 +902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:13">
       <c r="H8" t="s">
         <v>43</v>
       </c>
@@ -863,7 +910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:13">
       <c r="H9" t="s">
         <v>55</v>
       </c>
@@ -871,7 +918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:13">
       <c r="H10" t="s">
         <v>44</v>
       </c>
@@ -882,7 +929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:13">
       <c r="H11" t="s">
         <v>1</v>
       </c>
@@ -890,7 +937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:13">
       <c r="H12" t="s">
         <v>69</v>
       </c>
@@ -898,7 +945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:13">
       <c r="H13" t="s">
         <v>37</v>
       </c>
@@ -906,7 +953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:13">
       <c r="H14" t="s">
         <v>75</v>
       </c>
@@ -917,7 +964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:13">
       <c r="H15" t="s">
         <v>2</v>
       </c>
@@ -925,7 +972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:13">
       <c r="H16" t="s">
         <v>7</v>
       </c>
@@ -933,7 +980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:13">
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -941,7 +988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:13">
       <c r="H18" t="s">
         <v>56</v>
       </c>
@@ -949,7 +996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:13">
       <c r="H19" t="s">
         <v>25</v>
       </c>
@@ -957,7 +1004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:13">
       <c r="H20" t="s">
         <v>14</v>
       </c>
@@ -965,7 +1012,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:13">
       <c r="H21" t="s">
         <v>74</v>
       </c>
@@ -973,7 +1020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:13">
       <c r="H22" t="s">
         <v>11</v>
       </c>
@@ -981,7 +1028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:13">
       <c r="H23" t="s">
         <v>20</v>
       </c>
@@ -989,7 +1036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:13">
       <c r="H24" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:13">
       <c r="H25" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:13">
       <c r="H26" t="s">
         <v>72</v>
       </c>
@@ -1013,7 +1060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:13">
       <c r="H27" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:13">
       <c r="H28" t="s">
         <v>23</v>
       </c>
@@ -1029,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:13">
       <c r="H29" t="s">
         <v>66</v>
       </c>
@@ -1037,7 +1084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:13">
       <c r="H30" t="s">
         <v>53</v>
       </c>
@@ -1045,7 +1092,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:13">
       <c r="H31" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:13">
       <c r="H32" t="s">
         <v>62</v>
       </c>
@@ -1061,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:13">
       <c r="H33" t="s">
         <v>21</v>
       </c>
@@ -1069,7 +1116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:13">
       <c r="H34" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:13">
       <c r="H35" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:13">
       <c r="H36" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:13">
       <c r="H37" t="s">
         <v>15</v>
       </c>
@@ -1101,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:13">
       <c r="H38" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:13">
       <c r="H39" t="s">
         <v>18</v>
       </c>
@@ -1117,7 +1164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:13">
       <c r="H40" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:13">
       <c r="H41" t="s">
         <v>8</v>
       </c>
@@ -1133,22 +1180,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:13">
       <c r="M42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:13">
       <c r="M43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:13">
       <c r="M44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:13">
       <c r="L45">
         <v>1</v>
       </c>
@@ -1163,6 +1210,12 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1170,26 +1223,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BY258"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="116.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="76" max="76" width="14.140625" customWidth="1"/>
-    <col min="78" max="78" width="32.5703125" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" customWidth="1"/>
+    <col min="76" max="76" width="14.1640625" customWidth="1"/>
+    <col min="78" max="78" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77">
       <c r="H4" s="2" t="s">
         <v>79</v>
       </c>
@@ -1401,7 +1454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77">
       <c r="H5" t="s">
         <v>32</v>
       </c>
@@ -1613,7 +1666,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1843,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77">
       <c r="G7" t="str">
         <f>H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;W7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7&amp;AC7&amp;AD7&amp;AE7&amp;AF7&amp;AG7&amp;AH7&amp;AI7&amp;AJ7&amp;AK7&amp;AL7&amp;AM7&amp;AN7&amp;AO7&amp;AP7&amp;AQ7&amp;AR7&amp;AS7&amp;AT7&amp;AU7&amp;AV7&amp;AW7&amp;AY7&amp;AZ7&amp;BA7&amp;BB7&amp;BC7&amp;BD7&amp;BE7&amp;BF7&amp;BG7&amp;BH7&amp;BI7&amp;BJ7&amp;BK7&amp;BL7&amp;BM7&amp;BN7&amp;BO7&amp;BP7&amp;BQ7&amp;BR7&amp;BS7&amp;BT7&amp;BU7&amp;BV7&amp;BW7&amp;BX7&amp;BY7</f>
         <v>attributeContain("skladniki","bagietka")attributeContain("skladniki","olej")attributeContain("skladniki","ziemniaki")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","piekarnik")attributeContain("sprzet","patelnia")attributeContain("sprzet","frytkownica")attributeContain("cieplo_zimno","ciepło")attributeContain("zmywanie","tak")attributeContain("glodny","średnio")attributeContain("glodny","bardzo")attributeContain("bogato","tak, na bogato")attributeContain("bogato","bieda")</v>
@@ -2125,7 +2178,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77">
       <c r="F8" t="s">
         <v>123</v>
       </c>
@@ -2393,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77">
       <c r="G9" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","bagietka")attributeContain("skladniki","parówki")attributeContain("pic_jesc","jeść")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","mikrofalówka")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","lekko")attributeContain("bogato","bieda")</v>
@@ -2675,7 +2728,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -2936,7 +2989,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77">
       <c r="G11" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","cebula")attributeContain("skladniki","kapusta")attributeContain("skladniki","kapusta kiszona")attributeContain("skladniki","kiełbasa")attributeContain("skladniki","mięso ")attributeContain("skladniki","olej")attributeContain("skladniki","szynka")attributeContain("pic_jesc","jeść")attributeContain("smak","kwaśny")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","kuchenka")attributeContain("sprzet","garnek")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","średnio")attributeContain("glodny","bardzo")attributeContain("bogato","tak, na bogato")</v>
@@ -3218,7 +3271,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77">
       <c r="F12" t="s">
         <v>52</v>
       </c>
@@ -3291,7 +3344,7 @@
         <v/>
       </c>
       <c r="X12" t="str">
-        <f t="shared" ref="X12:BY12" si="9">IF(X11=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
+        <f t="shared" ref="X12:BX12" si="9">IF(X11=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Y12" t="str">
@@ -3484,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77">
       <c r="G13" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","śmietana")attributeContain("skladniki","ziemniaki")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","kuchenka")attributeContain("sprzet","garnek")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("cieplo_zimno","zimno")attributeContain("zmywanie","nie")attributeContain("glodny","lekko")attributeContain("glodny","średnio")attributeContain("glodny","bardzo")attributeContain("bogato","bieda")</v>
@@ -3766,7 +3819,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77">
       <c r="F14" t="s">
         <v>19</v>
       </c>
@@ -3830,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" ref="X14:BY14" si="11">IF(X13=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
+        <f t="shared" ref="X14:BX14" si="11">IF(X13=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Y14">
@@ -4003,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77">
       <c r="G15" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","bagietka")attributeContain("skladniki","bułka")attributeContain("skladniki","cebula")attributeContain("skladniki","chleb")attributeContain("skladniki","dżem")attributeContain("skladniki","jajka")attributeContain("skladniki","kiełbasa")attributeContain("skladniki","masło")attributeContain("skladniki","mięso ")attributeContain("skladniki","miód")attributeContain("skladniki","nutella")attributeContain("skladniki","ogórek")attributeContain("skladniki","papryka")attributeContain("skladniki","parówki")attributeContain("skladniki","pasztet")attributeContain("skladniki","pieczarki ")attributeContain("skladniki","pomidor")attributeContain("skladniki","ser pleśniowy ")attributeContain("skladniki","ser twarogowy ")attributeContain("skladniki","ser żółty ")attributeContain("skladniki","szynka")attributeContain("pic_jesc","jeść")attributeContain("smak","słodki")attributeContain("smak","słony")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("glodny","lekko")attributeContain("glodny","średnio")attributeContain("bogato","bieda")</v>
@@ -4285,15 +4338,14 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="I16" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4567,7 +4619,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:77">
       <c r="G17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4849,7 +4901,10 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:77">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5131,7 +5186,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:77">
       <c r="G19" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5413,7 +5468,10 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:77">
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5695,7 +5753,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:77">
       <c r="G21" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5977,7 +6035,10 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:77">
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6259,7 +6320,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:77">
       <c r="G23" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6541,7 +6602,10 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:77">
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
       <c r="G24" t="str">
         <f>H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24&amp;P24&amp;Q24&amp;R24&amp;S24&amp;T24&amp;U24&amp;V24&amp;W24&amp;X24&amp;Y24&amp;Z24&amp;AA24&amp;AB24&amp;AC24&amp;AD24&amp;AE24&amp;AF24&amp;AG24&amp;AH24&amp;AI24&amp;AJ24&amp;AK24&amp;AL24&amp;AM24&amp;AN24&amp;AO24&amp;AP24&amp;AQ24&amp;AR24&amp;AS24&amp;AT24&amp;AU24&amp;AV24&amp;AW24&amp;AY24&amp;AZ24&amp;BA24&amp;BB24&amp;BC24&amp;BD24&amp;BE24&amp;BF24&amp;BG24&amp;BH24&amp;BI24&amp;BJ24&amp;BK24&amp;BL24&amp;BM24&amp;BN24&amp;BO24&amp;BP24&amp;BQ24&amp;BR24&amp;BS24&amp;BT24&amp;BU24&amp;BV24&amp;BW24&amp;BX24&amp;BY24</f>
         <v/>
@@ -6823,7 +6887,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:77">
       <c r="G25" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7105,7 +7169,10 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:77">
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7383,7 +7450,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:77">
       <c r="G27" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7661,7 +7728,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:77">
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7939,7 +8009,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:77">
       <c r="G29" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8217,7 +8287,10 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:77">
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8495,7 +8568,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:77">
       <c r="G31" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8773,7 +8846,10 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:77">
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9051,7 +9127,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:77">
       <c r="G33" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9329,7 +9405,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:77">
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9607,7 +9686,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:77">
       <c r="G35" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9885,7 +9964,10 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:77">
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -10163,7 +10245,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:77">
       <c r="G37" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -10441,7 +10523,10 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:77">
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -10719,7 +10804,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:77">
       <c r="G39" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -10997,7 +11082,10 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:77">
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11275,7 +11363,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:77">
       <c r="G41" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11553,7 +11641,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:77">
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11831,7 +11922,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:77">
       <c r="G43" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12109,7 +12200,10 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:77">
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12387,7 +12481,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:77">
       <c r="G45" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12665,7 +12759,10 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:77">
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12943,7 +13040,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:77">
       <c r="G47" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13221,7 +13318,10 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:77">
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13499,7 +13599,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:77">
       <c r="G49" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13777,7 +13877,10 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:77">
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -14055,7 +14158,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:77">
       <c r="G51" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -14333,7 +14436,10 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:77">
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -14611,7 +14717,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:77">
       <c r="G53" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -14889,7 +14995,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:77">
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -15163,7 +15272,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:77">
       <c r="G55" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -15437,7 +15546,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:77">
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -15711,7 +15823,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:77">
       <c r="G57" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -15985,7 +16097,10 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:77">
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16259,7 +16374,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:77">
       <c r="G59" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16533,7 +16648,10 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:77">
+      <c r="F60" t="s">
+        <v>77</v>
+      </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16807,7 +16925,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:77">
       <c r="G61" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17081,7 +17199,10 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:77">
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17355,7 +17476,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:77">
       <c r="G63" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17629,7 +17750,10 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:77">
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17903,7 +18027,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:77">
       <c r="G65" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18177,7 +18301,10 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:77">
+      <c r="F66" t="s">
+        <v>54</v>
+      </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18451,7 +18578,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:77">
       <c r="G67" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18725,7 +18852,10 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:77">
+      <c r="F68" t="s">
+        <v>57</v>
+      </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18999,7 +19129,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:77">
       <c r="G69" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -19273,7 +19403,10 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:77">
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -19547,7 +19680,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:77">
       <c r="G71" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -19821,7 +19954,10 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:77">
+      <c r="F72" t="s">
+        <v>63</v>
+      </c>
       <c r="G72" t="str">
         <f t="shared" ref="G72:G128" si="72">H72&amp;I72&amp;J72&amp;K72&amp;L72&amp;M72&amp;N72&amp;O72&amp;P72&amp;Q72&amp;R72&amp;S72&amp;T72&amp;U72&amp;V72&amp;W72&amp;X72&amp;Y72&amp;Z72&amp;AA72&amp;AB72&amp;AC72&amp;AD72&amp;AE72&amp;AF72&amp;AG72&amp;AH72&amp;AI72&amp;AJ72&amp;AK72&amp;AL72&amp;AM72&amp;AN72&amp;AO72&amp;AP72&amp;AQ72&amp;AR72&amp;AS72&amp;AT72&amp;AU72&amp;AV72&amp;AW72&amp;AY72&amp;AZ72&amp;BA72&amp;BB72&amp;BC72&amp;BD72&amp;BE72&amp;BF72&amp;BG72&amp;BH72&amp;BI72&amp;BJ72&amp;BK72&amp;BL72&amp;BM72&amp;BN72&amp;BO72&amp;BP72&amp;BQ72&amp;BR72&amp;BS72&amp;BT72&amp;BU72&amp;BV72&amp;BW72&amp;BX72&amp;BY72</f>
         <v/>
@@ -20095,7 +20231,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:77">
       <c r="G73" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -20369,7 +20505,10 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:77">
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
       <c r="G74" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -20643,7 +20782,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:77">
       <c r="G75" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -20917,7 +21056,10 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:77">
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
       <c r="G76" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -21191,7 +21333,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:77">
       <c r="G77" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -21465,7 +21607,10 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:77">
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
       <c r="G78" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -21739,7 +21884,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:77">
       <c r="G79" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -22013,7 +22158,10 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:77">
+      <c r="F80" t="s">
+        <v>38</v>
+      </c>
       <c r="G80" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -22287,7 +22435,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:77">
       <c r="G81" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -22561,7 +22709,10 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:77">
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
       <c r="G82" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -22835,7 +22986,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:77">
       <c r="G83" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -23109,7 +23260,10 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:77">
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
       <c r="G84" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -23383,7 +23537,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:77">
       <c r="G85" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -23657,7 +23811,10 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:77">
+      <c r="F86" t="s">
+        <v>60</v>
+      </c>
       <c r="G86" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -23931,7 +24088,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:77">
       <c r="G87" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -24205,7 +24362,10 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:77">
+      <c r="F88" t="s">
+        <v>30</v>
+      </c>
       <c r="G88" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -24483,7 +24643,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:77">
       <c r="G89" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -24761,7 +24921,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:77">
       <c r="G90" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25039,7 +25199,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:77">
       <c r="G91" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25317,7 +25477,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:77">
       <c r="G92" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25595,7 +25755,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:77">
       <c r="G93" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25873,7 +26033,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:77">
       <c r="G94" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -26151,7 +26311,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:77">
       <c r="G95" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -26429,7 +26589,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:77">
       <c r="G96" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -26707,7 +26867,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:77">
       <c r="G97" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -26985,7 +27145,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:77">
       <c r="G98" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -27263,7 +27423,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:77">
       <c r="G99" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -27541,7 +27701,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:77">
       <c r="G100" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -27819,7 +27979,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:77">
       <c r="G101" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -28097,7 +28257,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:77">
       <c r="G102" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -28375,7 +28535,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:77">
       <c r="G103" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -28653,7 +28813,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:77">
       <c r="G104" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -28931,7 +29091,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:77">
       <c r="G105" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -29209,7 +29369,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:77">
       <c r="G106" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -29487,7 +29647,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:77">
       <c r="G107" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -29765,7 +29925,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:77">
       <c r="G108" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30043,7 +30203,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:77">
       <c r="G109" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30321,7 +30481,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:77">
       <c r="G110" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30599,7 +30759,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:77">
       <c r="G111" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30877,7 +31037,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:77">
       <c r="G112" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -31155,7 +31315,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:77">
       <c r="G113" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -31433,7 +31593,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:77">
       <c r="G114" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -31711,7 +31871,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:77">
       <c r="G115" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -31989,7 +32149,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:77">
       <c r="G116" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -32267,7 +32427,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:77">
       <c r="G117" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -32545,7 +32705,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:77">
       <c r="G118" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -32823,7 +32983,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:77">
       <c r="G119" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -33101,7 +33261,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:77">
       <c r="G120" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -33379,7 +33539,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:77">
       <c r="G121" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -33657,7 +33817,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:77">
       <c r="G122" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -33935,7 +34095,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:77">
       <c r="G123" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -34213,7 +34373,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:77">
       <c r="G124" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -34491,7 +34651,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:77">
       <c r="G125" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -34769,7 +34929,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:77">
       <c r="G126" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -35047,7 +35207,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:77">
       <c r="G127" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -35325,7 +35485,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="7:77" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:77">
       <c r="G128" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -35603,7 +35763,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:77">
       <c r="H129" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -35877,7 +36037,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:77">
       <c r="H130" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -36151,7 +36311,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:77">
       <c r="H131" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -36425,7 +36585,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:77">
       <c r="H132" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -36699,7 +36859,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:77">
       <c r="H133" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -36973,7 +37133,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:77">
       <c r="H134" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -37247,7 +37407,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:77">
       <c r="H135" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -37521,7 +37681,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:77">
       <c r="H136" t="str">
         <f t="shared" ref="H136:W151" si="141">IF(H135=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -37795,7 +37955,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:77">
       <c r="H137" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38069,7 +38229,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:77">
       <c r="H138" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38343,7 +38503,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:77">
       <c r="H139" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38617,7 +38777,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:77">
       <c r="H140" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38891,7 +39051,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:77">
       <c r="H141" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -39165,7 +39325,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:77">
       <c r="H142" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -39439,7 +39599,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:77">
       <c r="H143" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -39713,7 +39873,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:77">
       <c r="H144" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -39987,7 +40147,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:77">
       <c r="H145" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -40261,7 +40421,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:77">
       <c r="H146" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -40535,7 +40695,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:77">
       <c r="H147" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -40809,7 +40969,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:77">
       <c r="H148" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41083,7 +41243,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:77">
       <c r="H149" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41357,7 +41517,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:77">
       <c r="H150" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41631,7 +41791,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:77">
       <c r="H151" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41905,7 +42065,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:77">
       <c r="H152" t="str">
         <f t="shared" ref="H152:W167" si="158">IF(H151=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -42179,7 +42339,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:77">
       <c r="H153" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -42453,7 +42613,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:77">
       <c r="H154" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -42727,7 +42887,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:77">
       <c r="H155" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43001,7 +43161,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:77">
       <c r="H156" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43275,7 +43435,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:77">
       <c r="H157" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43549,7 +43709,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:77">
       <c r="H158" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43827,7 +43987,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:77">
       <c r="H159" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -44105,7 +44265,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:77">
       <c r="H160" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -44383,7 +44543,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:77">
       <c r="H161" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -44661,7 +44821,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:77">
       <c r="H162" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -44939,7 +45099,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:77">
       <c r="H163" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -45217,7 +45377,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:77">
       <c r="H164" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -45495,7 +45655,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:77">
       <c r="H165" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -45773,7 +45933,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:77">
       <c r="H166" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -46051,7 +46211,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:77">
       <c r="H167" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -46329,7 +46489,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:77">
       <c r="H168" t="str">
         <f t="shared" ref="H168:W183" si="175">IF(H167=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -46607,7 +46767,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:77">
       <c r="H169" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -46885,7 +47045,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:77">
       <c r="H170" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -47163,7 +47323,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:77">
       <c r="H171" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -47441,7 +47601,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:77">
       <c r="H172" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -47719,7 +47879,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:77">
       <c r="H173" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -47997,7 +48157,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:77">
       <c r="H174" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -48275,7 +48435,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:77">
       <c r="H175" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -48553,7 +48713,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:77">
       <c r="H176" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -48831,7 +48991,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:77">
       <c r="H177" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -49109,7 +49269,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:77">
       <c r="H178" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -49387,7 +49547,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:77">
       <c r="H179" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -49665,7 +49825,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:77">
       <c r="H180" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -49943,7 +50103,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:77">
       <c r="H181" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -50221,7 +50381,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:77">
       <c r="H182" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -50499,7 +50659,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:77">
       <c r="H183" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -50777,7 +50937,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:77">
       <c r="H184" t="str">
         <f t="shared" ref="H184:W199" si="192">IF(H183=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -51055,7 +51215,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:77">
       <c r="H185" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -51333,7 +51493,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:77">
       <c r="H186" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -51611,7 +51771,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:77">
       <c r="H187" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -51889,7 +52049,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:77">
       <c r="H188" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -52167,7 +52327,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:77">
       <c r="H189" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -52445,7 +52605,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:77">
       <c r="H190" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -52723,7 +52883,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:77">
       <c r="H191" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53001,7 +53161,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:77">
       <c r="H192" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53279,7 +53439,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:77">
       <c r="H193" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53557,7 +53717,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:77">
       <c r="H194" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53835,7 +53995,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:77">
       <c r="H195" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -54113,7 +54273,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:77">
       <c r="H196" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -54391,7 +54551,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:77">
       <c r="H197" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -54669,7 +54829,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:77">
       <c r="H198" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -54947,7 +55107,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:77">
       <c r="H199" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -55225,7 +55385,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:77">
       <c r="H200" t="str">
         <f t="shared" ref="H200:W215" si="209">IF(H199=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -55503,7 +55663,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:77">
       <c r="H201" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -55781,7 +55941,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:77">
       <c r="H202" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56059,7 +56219,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:77">
       <c r="H203" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56337,7 +56497,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:77">
       <c r="H204" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56615,7 +56775,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:77">
       <c r="H205" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56893,7 +57053,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:77">
       <c r="H206" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -57171,7 +57331,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:77">
       <c r="H207" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -57449,7 +57609,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:77">
       <c r="H208" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -57727,7 +57887,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:77">
       <c r="H209" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58005,7 +58165,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:77">
       <c r="H210" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58283,7 +58443,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:77">
       <c r="H211" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58561,7 +58721,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:77">
       <c r="H212" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58839,7 +58999,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:77">
       <c r="H213" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -59117,7 +59277,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:77">
       <c r="H214" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -59395,7 +59555,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:77">
       <c r="H215" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -59673,7 +59833,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:77">
       <c r="H216" t="str">
         <f t="shared" ref="H216:W231" si="226">IF(H215=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -59951,7 +60111,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:77">
       <c r="H217" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -60229,7 +60389,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:77">
       <c r="H218" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -60507,7 +60667,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:77">
       <c r="H219" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -60785,7 +60945,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:77">
       <c r="H220" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61063,7 +61223,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:77">
       <c r="H221" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61341,7 +61501,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:77">
       <c r="H222" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61619,7 +61779,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:77">
       <c r="H223" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61897,7 +62057,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:77">
       <c r="H224" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -62175,7 +62335,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:77">
       <c r="H225" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -62453,7 +62613,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:77">
       <c r="H226" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -62731,7 +62891,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:77">
       <c r="H227" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63009,7 +63169,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:77">
       <c r="H228" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63287,7 +63447,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:77">
       <c r="H229" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63565,7 +63725,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:77">
       <c r="H230" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63843,7 +64003,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:77">
       <c r="H231" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -64121,7 +64281,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:77">
       <c r="H232" t="str">
         <f t="shared" ref="H232:W247" si="243">IF(H231=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -64399,7 +64559,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:77">
       <c r="H233" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -64677,7 +64837,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:77">
       <c r="H234" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -64955,7 +65115,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:77">
       <c r="H235" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -65233,7 +65393,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:77">
       <c r="H236" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -65511,7 +65671,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:77">
       <c r="H237" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -65789,7 +65949,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:77">
       <c r="H238" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66067,7 +66227,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:77">
       <c r="H239" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66345,7 +66505,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:77">
       <c r="H240" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66623,7 +66783,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:77">
       <c r="H241" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66901,7 +67061,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:77">
       <c r="H242" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -67179,7 +67339,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:77">
       <c r="H243" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -67457,7 +67617,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:77">
       <c r="H244" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -67735,7 +67895,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:77">
       <c r="H245" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -68013,7 +68173,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:77">
       <c r="H246" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -68291,7 +68451,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:77">
       <c r="H247" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -68569,7 +68729,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:77">
       <c r="H248" t="str">
         <f t="shared" ref="H248:W258" si="260">IF(H247=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -68847,7 +69007,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:77">
       <c r="H249" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -69125,7 +69285,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:77">
       <c r="H250" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -69403,7 +69563,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:77">
       <c r="H251" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -69681,7 +69841,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:77">
       <c r="H252" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -69959,7 +70119,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:77">
       <c r="H253" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -70237,7 +70397,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:77">
       <c r="H254" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -70515,7 +70675,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:77">
       <c r="H255" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -70793,7 +70953,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:77">
       <c r="H256" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -71071,7 +71231,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:77">
       <c r="H257" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -71349,7 +71509,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="8:77" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:77">
       <c r="H258" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -71629,7 +71789,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -71639,8 +71804,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/jedzenie.xlsx
+++ b/jedzenie.xlsx
@@ -504,8 +504,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -531,13 +549,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="31">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Standardowy" xfId="0" builtinId="0"/>
     <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="4" builtinId="9" hidden="1"/>
@@ -545,6 +572,15 @@
     <cellStyle name="Użyte hiperłącze" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BY258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4350,10 +4386,6 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="K16" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4398,10 +4430,6 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="W16" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4558,10 +4586,6 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BJ16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="BK16" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -4578,10 +4602,6 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BO16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="BP16" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -4594,23 +4614,11 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BT16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="BU16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BV16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="BW16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="BX16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -4907,24 +4915,19 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>11111111111111111111</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="L18" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4969,9 +4972,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="W18">
+        <v>1</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" ref="X18:BY18" si="15">IF(X17=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
@@ -4989,9 +4991,8 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AB18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="AB18">
+        <v>1</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="15"/>
@@ -5025,9 +5026,8 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AK18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="AK18">
+        <v>1</v>
       </c>
       <c r="AL18" t="str">
         <f t="shared" si="15"/>
@@ -5041,9 +5041,8 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AO18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="AO18">
+        <v>1</v>
       </c>
       <c r="AP18" t="str">
         <f t="shared" si="15"/>
@@ -5065,9 +5064,8 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AU18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="AU18">
+        <v>1</v>
       </c>
       <c r="AV18" t="str">
         <f t="shared" si="15"/>
@@ -5085,29 +5083,24 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AZ18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="AZ18">
+        <v>1</v>
       </c>
       <c r="BA18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BB18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="BC18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="BD18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="BE18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
       </c>
       <c r="BF18" t="str">
         <f t="shared" si="15"/>
@@ -5117,21 +5110,18 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BH18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="BI18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
       </c>
       <c r="BJ18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BK18">
+        <v>1</v>
       </c>
       <c r="BL18" t="str">
         <f t="shared" si="15"/>
@@ -5145,51 +5135,45 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BO18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BO18">
+        <v>1</v>
       </c>
       <c r="BP18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BR18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BR18">
+        <v>1</v>
       </c>
       <c r="BS18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BT18">
+        <v>1</v>
       </c>
       <c r="BU18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BV18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BV18">
+        <v>1</v>
       </c>
       <c r="BW18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BX18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="BY18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="BX18">
+        <v>1</v>
+      </c>
+      <c r="BY18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="6:77">
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>attributeContain("skladniki","bułka")attributeContain("skladniki","mięso ")attributeContain("skladniki","ogórek")attributeContain("skladniki","pomidor")attributeContain("skladniki","ser żółty ")attributeContain("pic_jesc","jeść")attributeContain("smak","kwaśny")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","piekarnik")attributeContain("sprzet","mikrofalówka")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","średnio")attributeContain("bogato","tak, na bogato")attributeContain("bogato","bieda")</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -5197,7 +5181,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>attributeContain("skladniki","bułka")</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
@@ -5253,7 +5237,7 @@
       </c>
       <c r="W19" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>attributeContain("skladniki","mięso ")</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" ref="X19:BY19" si="16">IF(X18=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
@@ -5273,7 +5257,7 @@
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("skladniki","ogórek")</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="16"/>
@@ -5309,7 +5293,7 @@
       </c>
       <c r="AK19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("skladniki","pomidor")</v>
       </c>
       <c r="AL19" t="str">
         <f t="shared" si="16"/>
@@ -5325,7 +5309,7 @@
       </c>
       <c r="AO19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("skladniki","ser żółty ")</v>
       </c>
       <c r="AP19" t="str">
         <f t="shared" si="16"/>
@@ -5349,7 +5333,7 @@
       </c>
       <c r="AU19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("pic_jesc","jeść")</v>
       </c>
       <c r="AV19" t="str">
         <f t="shared" si="16"/>
@@ -5369,7 +5353,7 @@
       </c>
       <c r="AZ19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("smak","kwaśny")</v>
       </c>
       <c r="BA19" t="str">
         <f t="shared" si="16"/>
@@ -5377,19 +5361,19 @@
       </c>
       <c r="BB19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("czas","10 min")</v>
       </c>
       <c r="BC19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("czas","30 min")</v>
       </c>
       <c r="BD19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("czas","60 min")</v>
       </c>
       <c r="BE19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("czas","więcej")</v>
       </c>
       <c r="BF19" t="str">
         <f t="shared" si="16"/>
@@ -5401,11 +5385,11 @@
       </c>
       <c r="BH19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("sprzet","piekarnik")</v>
       </c>
       <c r="BI19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("sprzet","mikrofalówka")</v>
       </c>
       <c r="BJ19" t="str">
         <f t="shared" si="16"/>
@@ -5413,7 +5397,7 @@
       </c>
       <c r="BK19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("sprzet","patelnia")</v>
       </c>
       <c r="BL19" t="str">
         <f t="shared" si="16"/>
@@ -5429,7 +5413,7 @@
       </c>
       <c r="BO19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("cieplo_zimno","ciepło")</v>
       </c>
       <c r="BP19" t="str">
         <f t="shared" si="16"/>
@@ -5437,7 +5421,7 @@
       </c>
       <c r="BR19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("wegetarianskie","nie")</v>
       </c>
       <c r="BS19" t="str">
         <f t="shared" si="16"/>
@@ -5445,7 +5429,7 @@
       </c>
       <c r="BT19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("zmywanie","nie")</v>
       </c>
       <c r="BU19" t="str">
         <f t="shared" si="16"/>
@@ -5453,7 +5437,7 @@
       </c>
       <c r="BV19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("glodny","średnio")</v>
       </c>
       <c r="BW19" t="str">
         <f t="shared" si="16"/>
@@ -5461,11 +5445,11 @@
       </c>
       <c r="BX19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("bogato","tak, na bogato")</v>
       </c>
       <c r="BY19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
     <row r="20" spans="6:77">
@@ -5474,7 +5458,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>11111111111111111</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -5484,9 +5468,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="3"/>
@@ -5508,17 +5491,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="P20">
+        <v>1</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="R20">
+        <v>1</v>
       </c>
       <c r="S20" t="str">
         <f t="shared" si="3"/>
@@ -5540,12 +5521,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X20" t="str">
-        <f t="shared" ref="X20:BY20" si="17">IF(X19=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
-        <v/>
+      <c r="X20">
+        <v>1</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="X20:BY20" si="17">IF(Y19=1,CONCATENATE($A$6,Y$4,$B$6,Y$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Z20" t="str">
@@ -5592,13 +5572,11 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AK20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AL20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
       </c>
       <c r="AM20" t="str">
         <f t="shared" si="17"/>
@@ -5632,21 +5610,17 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AU20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AW20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AX20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
       </c>
       <c r="AY20" t="str">
         <f t="shared" si="17"/>
@@ -5668,13 +5642,11 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BD20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BE20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="BD20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
       </c>
       <c r="BF20" t="str">
         <f t="shared" si="17"/>
@@ -5692,9 +5664,8 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BJ20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="BJ20">
+        <v>1</v>
       </c>
       <c r="BK20" t="str">
         <f t="shared" si="17"/>
@@ -5712,21 +5683,18 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BO20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="BO20">
+        <v>1</v>
       </c>
       <c r="BP20" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BR20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BS20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="BR20">
+        <v>1</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
       </c>
       <c r="BT20" t="str">
         <f t="shared" si="17"/>
@@ -5740,13 +5708,11 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BW20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BX20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="BW20">
+        <v>1</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
       </c>
       <c r="BY20" t="str">
         <f t="shared" si="17"/>
@@ -5756,7 +5722,7 @@
     <row r="21" spans="6:77">
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>attributeContain("skladniki","cebula")attributeContain("skladniki","kapusta")attributeContain("skladniki","kasza")attributeContain("skladniki","mięso mielone")attributeContain("skladniki","pomidor")attributeContain("skladniki","ryż ")attributeContain("pic_jesc","jeść")attributeContain("smak","słodki")attributeContain("smak","słony")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","garnek")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","bardzo")attributeContain("bogato","tak, na bogato")</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -5768,7 +5734,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>attributeContain("skladniki","cebula")</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="3"/>
@@ -5792,7 +5758,7 @@
       </c>
       <c r="P21" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>attributeContain("skladniki","kapusta")</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="3"/>
@@ -5800,7 +5766,7 @@
       </c>
       <c r="R21" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>attributeContain("skladniki","kasza")</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="3"/>
@@ -5824,7 +5790,7 @@
       </c>
       <c r="X21" t="str">
         <f t="shared" ref="X21:BY21" si="18">IF(X20=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
-        <v/>
+        <v>attributeContain("skladniki","mięso mielone")</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="18"/>
@@ -5876,11 +5842,11 @@
       </c>
       <c r="AK21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("skladniki","pomidor")</v>
       </c>
       <c r="AL21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("skladniki","ryż ")</v>
       </c>
       <c r="AM21" t="str">
         <f t="shared" si="18"/>
@@ -5916,19 +5882,19 @@
       </c>
       <c r="AU21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("pic_jesc","jeść")</v>
       </c>
       <c r="AV21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("smak","słodki")</v>
       </c>
       <c r="AW21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("smak","słony")</v>
       </c>
       <c r="AX21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("smak","wytrawny")</v>
       </c>
       <c r="AY21" t="str">
         <f t="shared" si="18"/>
@@ -5952,11 +5918,11 @@
       </c>
       <c r="BD21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("czas","60 min")</v>
       </c>
       <c r="BE21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("czas","więcej")</v>
       </c>
       <c r="BF21" t="str">
         <f t="shared" si="18"/>
@@ -5976,7 +5942,7 @@
       </c>
       <c r="BJ21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("sprzet","garnek")</v>
       </c>
       <c r="BK21" t="str">
         <f t="shared" si="18"/>
@@ -5996,7 +5962,7 @@
       </c>
       <c r="BO21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("cieplo_zimno","ciepło")</v>
       </c>
       <c r="BP21" t="str">
         <f t="shared" si="18"/>
@@ -6004,11 +5970,11 @@
       </c>
       <c r="BR21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("wegetarianskie","nie")</v>
       </c>
       <c r="BS21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("zmywanie","tak")</v>
       </c>
       <c r="BT21" t="str">
         <f t="shared" si="18"/>
@@ -6024,11 +5990,11 @@
       </c>
       <c r="BW21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("glodny","bardzo")</v>
       </c>
       <c r="BX21" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>attributeContain("bogato","tak, na bogato")</v>
       </c>
       <c r="BY21" t="str">
         <f t="shared" si="18"/>
@@ -6041,7 +6007,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1111111111111111</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -6067,9 +6033,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="N22">
+        <v>1</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="3"/>
@@ -6111,10 +6076,6 @@
         <f t="shared" ref="X22:BY22" si="19">IF(X21=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
         <v/>
       </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="Z22" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -6195,17 +6156,15 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="AT22">
+        <v>1</v>
       </c>
       <c r="AU22" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AV22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="AV22">
+        <v>1</v>
       </c>
       <c r="AW22" t="str">
         <f t="shared" si="19"/>
@@ -6215,9 +6174,8 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AY22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="AY22">
+        <v>1</v>
       </c>
       <c r="AZ22" t="str">
         <f t="shared" si="19"/>
@@ -6227,21 +6185,17 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BB22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BC22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BD22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
       </c>
       <c r="BF22" t="str">
         <f t="shared" si="19"/>
@@ -6271,37 +6225,35 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BM22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="BM22">
+        <v>1</v>
       </c>
       <c r="BN22" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="BO22">
+        <v>1</v>
       </c>
       <c r="BP22" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BR22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="BQ22">
+        <v>1</v>
+      </c>
+      <c r="BR22">
+        <v>1</v>
       </c>
       <c r="BS22" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BT22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BU22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
+        <v>1</v>
       </c>
       <c r="BV22" t="str">
         <f t="shared" si="19"/>
@@ -6311,19 +6263,17 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BX22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BY22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="BX22">
+        <v>1</v>
+      </c>
+      <c r="BY22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="6:77">
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>attributeContain("skladniki","herbata")attributeContain("pic_jesc","pić")attributeContain("smak","słodki")attributeContain("smak","gorzki")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","czajnik")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","lekko")attributeContain("bogato","tak, na bogato")attributeContain("bogato","bieda")</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -6351,7 +6301,7 @@
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>attributeContain("skladniki","herbata")</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="3"/>
@@ -6479,7 +6429,7 @@
       </c>
       <c r="AT23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("pic_jesc","pić")</v>
       </c>
       <c r="AU23" t="str">
         <f t="shared" si="20"/>
@@ -6487,7 +6437,7 @@
       </c>
       <c r="AV23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("smak","słodki")</v>
       </c>
       <c r="AW23" t="str">
         <f t="shared" si="20"/>
@@ -6499,7 +6449,7 @@
       </c>
       <c r="AY23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("smak","gorzki")</v>
       </c>
       <c r="AZ23" t="str">
         <f t="shared" si="20"/>
@@ -6511,19 +6461,19 @@
       </c>
       <c r="BB23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("czas","10 min")</v>
       </c>
       <c r="BC23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("czas","30 min")</v>
       </c>
       <c r="BD23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("czas","60 min")</v>
       </c>
       <c r="BE23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("czas","więcej")</v>
       </c>
       <c r="BF23" t="str">
         <f t="shared" si="20"/>
@@ -6555,7 +6505,7 @@
       </c>
       <c r="BM23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("sprzet","czajnik")</v>
       </c>
       <c r="BN23" t="str">
         <f t="shared" si="20"/>
@@ -6563,7 +6513,7 @@
       </c>
       <c r="BO23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("cieplo_zimno","ciepło")</v>
       </c>
       <c r="BP23" t="str">
         <f t="shared" si="20"/>
@@ -6571,7 +6521,7 @@
       </c>
       <c r="BR23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("wegetarianskie","nie")</v>
       </c>
       <c r="BS23" t="str">
         <f t="shared" si="20"/>
@@ -6579,11 +6529,11 @@
       </c>
       <c r="BT23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("zmywanie","nie")</v>
       </c>
       <c r="BU23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("glodny","lekko")</v>
       </c>
       <c r="BV23" t="str">
         <f t="shared" si="20"/>
@@ -6595,11 +6545,11 @@
       </c>
       <c r="BX23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("bogato","tak, na bogato")</v>
       </c>
       <c r="BY23" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
     <row r="24" spans="6:77">
@@ -6608,7 +6558,7 @@
       </c>
       <c r="G24" t="str">
         <f>H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24&amp;P24&amp;Q24&amp;R24&amp;S24&amp;T24&amp;U24&amp;V24&amp;W24&amp;X24&amp;Y24&amp;Z24&amp;AA24&amp;AB24&amp;AC24&amp;AD24&amp;AE24&amp;AF24&amp;AG24&amp;AH24&amp;AI24&amp;AJ24&amp;AK24&amp;AL24&amp;AM24&amp;AN24&amp;AO24&amp;AP24&amp;AQ24&amp;AR24&amp;AS24&amp;AT24&amp;AU24&amp;AV24&amp;AW24&amp;AY24&amp;AZ24&amp;BA24&amp;BB24&amp;BC24&amp;BD24&amp;BE24&amp;BF24&amp;BG24&amp;BH24&amp;BI24&amp;BJ24&amp;BK24&amp;BL24&amp;BM24&amp;BN24&amp;BO24&amp;BP24&amp;BQ24&amp;BR24&amp;BS24&amp;BT24&amp;BU24&amp;BV24&amp;BW24&amp;BX24&amp;BY24</f>
-        <v/>
+        <v>11111111111111111</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ref="H24:W39" si="21">IF(H23=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
@@ -6618,10 +6568,6 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
       <c r="K24" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -6638,9 +6584,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="O24" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+      <c r="O24">
+        <v>1</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="21"/>
@@ -6662,9 +6607,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="U24" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+      <c r="U24">
+        <v>1</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="21"/>
@@ -6694,9 +6638,8 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AC24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="AC24">
+        <v>1</v>
       </c>
       <c r="AD24" t="str">
         <f t="shared" si="22"/>
@@ -6766,17 +6709,15 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AU24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="AU24">
+        <v>1</v>
       </c>
       <c r="AV24" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AW24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="AW24">
+        <v>1</v>
       </c>
       <c r="AX24" t="str">
         <f t="shared" si="22"/>
@@ -6794,21 +6735,17 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BB24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="BC24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="BD24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="BE24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
       </c>
       <c r="BF24" t="str">
         <f t="shared" si="22"/>
@@ -6830,9 +6767,8 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BK24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="BK24">
+        <v>1</v>
       </c>
       <c r="BL24" t="str">
         <f t="shared" si="22"/>
@@ -6846,33 +6782,31 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BO24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="BO24">
+        <v>1</v>
       </c>
       <c r="BP24" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="BS24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24">
+        <v>1</v>
+      </c>
+      <c r="BS24">
+        <v>1</v>
       </c>
       <c r="BT24" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BU24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="BV24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="BU24">
+        <v>1</v>
+      </c>
+      <c r="BV24">
+        <v>1</v>
       </c>
       <c r="BW24" t="str">
         <f t="shared" si="22"/>
@@ -6882,15 +6816,14 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BY24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="BY24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="6:77">
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>attributeContain("skladniki","jajka")attributeContain("skladniki","masło")attributeContain("skladniki","olej")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","tak")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","lekko")attributeContain("glodny","średnio")attributeContain("bogato","bieda")</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="21"/>
@@ -6922,7 +6855,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>attributeContain("skladniki","jajka")</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="21"/>
@@ -6946,7 +6879,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>attributeContain("skladniki","masło")</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="21"/>
@@ -6978,7 +6911,7 @@
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("skladniki","olej")</v>
       </c>
       <c r="AD25" t="str">
         <f t="shared" si="23"/>
@@ -7050,7 +6983,7 @@
       </c>
       <c r="AU25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("pic_jesc","jeść")</v>
       </c>
       <c r="AV25" t="str">
         <f t="shared" si="23"/>
@@ -7058,7 +6991,7 @@
       </c>
       <c r="AW25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("smak","słony")</v>
       </c>
       <c r="AX25" t="str">
         <f t="shared" si="23"/>
@@ -7078,19 +7011,19 @@
       </c>
       <c r="BB25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("czas","10 min")</v>
       </c>
       <c r="BC25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("czas","30 min")</v>
       </c>
       <c r="BD25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("czas","60 min")</v>
       </c>
       <c r="BE25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("czas","więcej")</v>
       </c>
       <c r="BF25" t="str">
         <f t="shared" si="23"/>
@@ -7114,7 +7047,7 @@
       </c>
       <c r="BK25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("sprzet","patelnia")</v>
       </c>
       <c r="BL25" t="str">
         <f t="shared" si="23"/>
@@ -7130,19 +7063,23 @@
       </c>
       <c r="BO25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("cieplo_zimno","ciepło")</v>
       </c>
       <c r="BP25" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
+      <c r="BQ25" t="str">
+        <f t="shared" si="23"/>
+        <v>attributeContain("wegetarianskie","tak")</v>
+      </c>
       <c r="BR25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("wegetarianskie","nie")</v>
       </c>
       <c r="BS25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("zmywanie","tak")</v>
       </c>
       <c r="BT25" t="str">
         <f t="shared" si="23"/>
@@ -7150,11 +7087,11 @@
       </c>
       <c r="BU25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("glodny","lekko")</v>
       </c>
       <c r="BV25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("glodny","średnio")</v>
       </c>
       <c r="BW25" t="str">
         <f t="shared" si="23"/>
@@ -7166,7 +7103,7 @@
       </c>
       <c r="BY25" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
     <row r="26" spans="6:77">
@@ -7175,7 +7112,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>111111111111111</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="21"/>
@@ -7185,10 +7122,6 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
       <c r="K26" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7205,9 +7138,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="O26" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+      <c r="O26">
+        <v>1</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="21"/>
@@ -7221,9 +7153,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="S26" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+      <c r="S26">
+        <v>1</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="21"/>
@@ -7261,9 +7192,8 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AC26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="AC26">
+        <v>1</v>
       </c>
       <c r="AD26" t="str">
         <f t="shared" si="24"/>
@@ -7333,17 +7263,15 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AU26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="AU26">
+        <v>1</v>
       </c>
       <c r="AV26" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AW26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="AW26">
+        <v>1</v>
       </c>
       <c r="AY26" t="str">
         <f t="shared" si="24"/>
@@ -7357,21 +7285,17 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BB26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="BC26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="BD26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="BE26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>1</v>
+      </c>
+      <c r="BE26">
+        <v>1</v>
       </c>
       <c r="BF26" t="str">
         <f t="shared" si="24"/>
@@ -7393,9 +7317,8 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BK26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="BK26">
+        <v>1</v>
       </c>
       <c r="BL26" t="str">
         <f t="shared" si="24"/>
@@ -7409,21 +7332,18 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BO26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="BO26">
+        <v>1</v>
       </c>
       <c r="BP26" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BR26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="BS26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
       </c>
       <c r="BT26" t="str">
         <f t="shared" si="24"/>
@@ -7433,17 +7353,15 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BV26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="BV26">
+        <v>1</v>
       </c>
       <c r="BW26" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BX26" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+      <c r="BX26">
+        <v>1</v>
       </c>
       <c r="BY26" t="str">
         <f t="shared" si="24"/>
@@ -7453,7 +7371,7 @@
     <row r="27" spans="6:77">
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>attributeContain("skladniki","jajka")attributeContain("skladniki","kiełbasa")attributeContain("skladniki","olej")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","średnio")attributeContain("bogato","tak, na bogato")</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="21"/>
@@ -7485,7 +7403,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>attributeContain("skladniki","jajka")</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="21"/>
@@ -7501,7 +7419,7 @@
       </c>
       <c r="S27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>attributeContain("skladniki","kiełbasa")</v>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="21"/>
@@ -7541,7 +7459,7 @@
       </c>
       <c r="AC27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("skladniki","olej")</v>
       </c>
       <c r="AD27" t="str">
         <f t="shared" si="25"/>
@@ -7613,7 +7531,7 @@
       </c>
       <c r="AU27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("pic_jesc","jeść")</v>
       </c>
       <c r="AV27" t="str">
         <f t="shared" si="25"/>
@@ -7621,7 +7539,7 @@
       </c>
       <c r="AW27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("smak","słony")</v>
       </c>
       <c r="AY27" t="str">
         <f t="shared" si="25"/>
@@ -7637,19 +7555,19 @@
       </c>
       <c r="BB27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("czas","10 min")</v>
       </c>
       <c r="BC27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("czas","30 min")</v>
       </c>
       <c r="BD27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("czas","60 min")</v>
       </c>
       <c r="BE27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("czas","więcej")</v>
       </c>
       <c r="BF27" t="str">
         <f t="shared" si="25"/>
@@ -7673,7 +7591,7 @@
       </c>
       <c r="BK27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("sprzet","patelnia")</v>
       </c>
       <c r="BL27" t="str">
         <f t="shared" si="25"/>
@@ -7689,7 +7607,7 @@
       </c>
       <c r="BO27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("cieplo_zimno","ciepło")</v>
       </c>
       <c r="BP27" t="str">
         <f t="shared" si="25"/>
@@ -7697,11 +7615,11 @@
       </c>
       <c r="BR27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("wegetarianskie","nie")</v>
       </c>
       <c r="BS27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("zmywanie","tak")</v>
       </c>
       <c r="BT27" t="str">
         <f t="shared" si="25"/>
@@ -7713,7 +7631,7 @@
       </c>
       <c r="BV27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("glodny","średnio")</v>
       </c>
       <c r="BW27" t="str">
         <f t="shared" si="25"/>
@@ -7721,7 +7639,7 @@
       </c>
       <c r="BX27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>attributeContain("bogato","tak, na bogato")</v>
       </c>
       <c r="BY27" t="str">
         <f t="shared" si="25"/>
@@ -71789,7 +71707,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/jedzenie.xlsx
+++ b/jedzenie.xlsx
@@ -504,8 +504,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -549,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="5" builtinId="8" hidden="1"/>
@@ -565,6 +569,8 @@
     <cellStyle name="Hiperłącze" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Standardowy" xfId="0" builtinId="0"/>
     <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="4" builtinId="9" hidden="1"/>
@@ -581,6 +587,8 @@
     <cellStyle name="Użyte hiperłącze" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1259,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BY258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7652,7 +7660,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>111111111111</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="21"/>
@@ -7682,9 +7690,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="O28" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+      <c r="O28">
+        <v>1</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="21"/>
@@ -7810,17 +7817,15 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="AU28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="AU28">
+        <v>1</v>
       </c>
       <c r="AV28" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="AW28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="AW28">
+        <v>1</v>
       </c>
       <c r="AY28" t="str">
         <f t="shared" si="26"/>
@@ -7834,21 +7839,14 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BB28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BC28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BD28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BE28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="BC28">
+        <v>1</v>
+      </c>
+      <c r="BD28">
+        <v>1</v>
+      </c>
+      <c r="BE28">
+        <v>1</v>
       </c>
       <c r="BF28" t="str">
         <f t="shared" si="26"/>
@@ -7866,9 +7864,8 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BJ28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="BJ28">
+        <v>1</v>
       </c>
       <c r="BK28" t="str">
         <f t="shared" si="26"/>
@@ -7886,33 +7883,29 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BO28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="BO28">
+        <v>1</v>
       </c>
       <c r="BP28" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BR28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="BR28">
+        <v>1</v>
       </c>
       <c r="BS28" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BT28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="BT28">
+        <v>1</v>
       </c>
       <c r="BU28" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="BV28">
+        <v>1</v>
       </c>
       <c r="BW28" t="str">
         <f t="shared" si="26"/>
@@ -7922,15 +7915,14 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BY28" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="BY28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="6:77">
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>attributeContain("skladniki","jajka")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","garnek")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","średnio")attributeContain("bogato","bieda")</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="21"/>
@@ -7962,7 +7954,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>attributeContain("skladniki","jajka")</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="21"/>
@@ -8090,7 +8082,7 @@
       </c>
       <c r="AU29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("pic_jesc","jeść")</v>
       </c>
       <c r="AV29" t="str">
         <f t="shared" si="27"/>
@@ -8098,7 +8090,7 @@
       </c>
       <c r="AW29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("smak","słony")</v>
       </c>
       <c r="AY29" t="str">
         <f t="shared" si="27"/>
@@ -8118,15 +8110,15 @@
       </c>
       <c r="BC29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("czas","30 min")</v>
       </c>
       <c r="BD29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("czas","60 min")</v>
       </c>
       <c r="BE29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("czas","więcej")</v>
       </c>
       <c r="BF29" t="str">
         <f t="shared" si="27"/>
@@ -8146,7 +8138,7 @@
       </c>
       <c r="BJ29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("sprzet","garnek")</v>
       </c>
       <c r="BK29" t="str">
         <f t="shared" si="27"/>
@@ -8166,7 +8158,7 @@
       </c>
       <c r="BO29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("cieplo_zimno","ciepło")</v>
       </c>
       <c r="BP29" t="str">
         <f t="shared" si="27"/>
@@ -8174,7 +8166,7 @@
       </c>
       <c r="BR29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("wegetarianskie","nie")</v>
       </c>
       <c r="BS29" t="str">
         <f t="shared" si="27"/>
@@ -8182,7 +8174,7 @@
       </c>
       <c r="BT29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("zmywanie","nie")</v>
       </c>
       <c r="BU29" t="str">
         <f t="shared" si="27"/>
@@ -8190,7 +8182,7 @@
       </c>
       <c r="BV29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("glodny","średnio")</v>
       </c>
       <c r="BW29" t="str">
         <f t="shared" si="27"/>
@@ -8202,7 +8194,7 @@
       </c>
       <c r="BY29" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
     <row r="30" spans="6:77">

--- a/jedzenie.xlsx
+++ b/jedzenie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$M$3:$M$44</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
   <si>
     <t>składniki</t>
   </si>
@@ -400,6 +400,9 @@
   <si>
     <t>wytrawny</t>
   </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
@@ -571,24 +574,24 @@
     <cellStyle name="Hiperłącze" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Standardowy" xfId="0" builtinId="0"/>
-    <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -889,18 +892,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M44" sqref="M4:M44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="8" max="9" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:13">
+    <row r="3" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>0</v>
       </c>
@@ -908,7 +911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="8:13">
+    <row r="4" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>32</v>
       </c>
@@ -916,7 +919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="8:13">
+    <row r="5" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>50</v>
       </c>
@@ -927,15 +930,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="8:13">
+    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>9</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="8:13">
+    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>3</v>
       </c>
@@ -946,23 +952,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="8:13">
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>43</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
       <c r="M8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="8:13">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>55</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
       <c r="M9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="8:13">
+    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>44</v>
       </c>
@@ -973,31 +985,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="8:13">
+    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
       <c r="M11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="8:13">
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>69</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
       <c r="M12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="8:13">
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>37</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
       <c r="M13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="8:13">
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>75</v>
       </c>
@@ -1008,15 +1029,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="8:13">
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>2</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
       <c r="M15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="8:13">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="8:13">
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="8:13">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>56</v>
       </c>
@@ -1040,7 +1064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="8:13">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="8:13">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="8:13">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>74</v>
       </c>
@@ -1064,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="8:13">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="8:13">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="8:13">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="8:13">
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="8:13">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>72</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="8:13">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>31</v>
       </c>
@@ -1112,7 +1136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="8:13">
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +1144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="8:13">
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>66</v>
       </c>
@@ -1128,7 +1152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="8:13">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>53</v>
       </c>
@@ -1136,110 +1160,152 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="8:13">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>10</v>
       </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
       <c r="M31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="8:13">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>62</v>
       </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
       <c r="M32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="8:13">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>21</v>
       </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
       <c r="M33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="8:13">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>6</v>
       </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
       <c r="M34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="8:13">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
         <v>5</v>
       </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
       <c r="M35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="8:13">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
         <v>24</v>
       </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
       <c r="M36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="8:13">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
         <v>15</v>
       </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
       <c r="M37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="8:13">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
         <v>13</v>
       </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
       <c r="M38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="8:13">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>18</v>
       </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
       <c r="M39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="8:13">
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>39</v>
       </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
       <c r="M40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="8:13">
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>8</v>
       </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
       <c r="M41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="8:13">
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>1</v>
+      </c>
       <c r="M42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="8:13">
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>1</v>
+      </c>
       <c r="M43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="8:13">
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>125</v>
+      </c>
       <c r="M44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="8:13">
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L45">
         <v>1</v>
       </c>
@@ -1267,26 +1333,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BY258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="116.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" customWidth="1"/>
-    <col min="76" max="76" width="14.1640625" customWidth="1"/>
-    <col min="78" max="78" width="32.5" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+    <col min="76" max="76" width="14.140625" customWidth="1"/>
+    <col min="78" max="78" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="H4" s="2" t="s">
         <v>79</v>
       </c>
@@ -1498,7 +1564,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>32</v>
       </c>
@@ -1710,7 +1776,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1940,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="G7" t="str">
         <f>H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;W7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7&amp;AC7&amp;AD7&amp;AE7&amp;AF7&amp;AG7&amp;AH7&amp;AI7&amp;AJ7&amp;AK7&amp;AL7&amp;AM7&amp;AN7&amp;AO7&amp;AP7&amp;AQ7&amp;AR7&amp;AS7&amp;AT7&amp;AU7&amp;AV7&amp;AW7&amp;AY7&amp;AZ7&amp;BA7&amp;BB7&amp;BC7&amp;BD7&amp;BE7&amp;BF7&amp;BG7&amp;BH7&amp;BI7&amp;BJ7&amp;BK7&amp;BL7&amp;BM7&amp;BN7&amp;BO7&amp;BP7&amp;BQ7&amp;BR7&amp;BS7&amp;BT7&amp;BU7&amp;BV7&amp;BW7&amp;BX7&amp;BY7</f>
         <v>attributeContain("skladniki","bagietka")attributeContain("skladniki","olej")attributeContain("skladniki","ziemniaki")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","piekarnik")attributeContain("sprzet","patelnia")attributeContain("sprzet","frytkownica")attributeContain("cieplo_zimno","ciepło")attributeContain("zmywanie","tak")attributeContain("glodny","średnio")attributeContain("glodny","bardzo")attributeContain("bogato","tak, na bogato")attributeContain("bogato","bieda")</v>
@@ -2222,7 +2288,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>123</v>
       </c>
@@ -2490,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="G9" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","bagietka")attributeContain("skladniki","parówki")attributeContain("pic_jesc","jeść")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","mikrofalówka")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","lekko")attributeContain("bogato","bieda")</v>
@@ -2772,7 +2838,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -3033,7 +3099,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="G11" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","cebula")attributeContain("skladniki","kapusta")attributeContain("skladniki","kapusta kiszona")attributeContain("skladniki","kiełbasa")attributeContain("skladniki","mięso ")attributeContain("skladniki","olej")attributeContain("skladniki","szynka")attributeContain("pic_jesc","jeść")attributeContain("smak","kwaśny")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","kuchenka")attributeContain("sprzet","garnek")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","średnio")attributeContain("glodny","bardzo")attributeContain("bogato","tak, na bogato")</v>
@@ -3315,7 +3381,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>52</v>
       </c>
@@ -3581,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="G13" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","śmietana")attributeContain("skladniki","ziemniaki")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","kuchenka")attributeContain("sprzet","garnek")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("cieplo_zimno","zimno")attributeContain("zmywanie","nie")attributeContain("glodny","lekko")attributeContain("glodny","średnio")attributeContain("glodny","bardzo")attributeContain("bogato","bieda")</v>
@@ -3863,7 +3929,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>19</v>
       </c>
@@ -4100,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="G15" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","bagietka")attributeContain("skladniki","bułka")attributeContain("skladniki","cebula")attributeContain("skladniki","chleb")attributeContain("skladniki","dżem")attributeContain("skladniki","jajka")attributeContain("skladniki","kiełbasa")attributeContain("skladniki","masło")attributeContain("skladniki","mięso ")attributeContain("skladniki","miód")attributeContain("skladniki","nutella")attributeContain("skladniki","ogórek")attributeContain("skladniki","papryka")attributeContain("skladniki","parówki")attributeContain("skladniki","pasztet")attributeContain("skladniki","pieczarki ")attributeContain("skladniki","pomidor")attributeContain("skladniki","ser pleśniowy ")attributeContain("skladniki","ser twarogowy ")attributeContain("skladniki","ser żółty ")attributeContain("skladniki","szynka")attributeContain("pic_jesc","jeść")attributeContain("smak","słodki")attributeContain("smak","słony")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("glodny","lekko")attributeContain("glodny","średnio")attributeContain("bogato","bieda")</v>
@@ -4382,7 +4448,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>45</v>
       </c>
@@ -4635,7 +4701,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="6:77">
+    <row r="17" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4917,7 +4983,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="6:77">
+    <row r="18" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>51</v>
       </c>
@@ -4984,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" ref="X18:BY18" si="15">IF(X17=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
+        <f t="shared" ref="X18:BW18" si="15">IF(X17=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Y18" t="str">
@@ -5178,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:77">
+    <row r="19" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G19" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","bułka")attributeContain("skladniki","mięso ")attributeContain("skladniki","ogórek")attributeContain("skladniki","pomidor")attributeContain("skladniki","ser żółty ")attributeContain("pic_jesc","jeść")attributeContain("smak","kwaśny")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","piekarnik")attributeContain("sprzet","mikrofalówka")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","średnio")attributeContain("bogato","tak, na bogato")attributeContain("bogato","bieda")</v>
@@ -5460,7 +5526,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="20" spans="6:77">
+    <row r="20" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>68</v>
       </c>
@@ -5533,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" ref="X20:BY20" si="17">IF(Y19=1,CONCATENATE($A$6,Y$4,$B$6,Y$5,$C$6),"")</f>
+        <f t="shared" ref="Y20:BY20" si="17">IF(Y19=1,CONCATENATE($A$6,Y$4,$B$6,Y$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Z20" t="str">
@@ -5727,7 +5793,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="6:77">
+    <row r="21" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G21" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","cebula")attributeContain("skladniki","kapusta")attributeContain("skladniki","kasza")attributeContain("skladniki","mięso mielone")attributeContain("skladniki","pomidor")attributeContain("skladniki","ryż ")attributeContain("pic_jesc","jeść")attributeContain("smak","słodki")attributeContain("smak","słony")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","garnek")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","bardzo")attributeContain("bogato","tak, na bogato")</v>
@@ -6009,7 +6075,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="6:77">
+    <row r="22" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>44</v>
       </c>
@@ -6081,7 +6147,7 @@
         <v/>
       </c>
       <c r="X22" t="str">
-        <f t="shared" ref="X22:BY22" si="19">IF(X21=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
+        <f t="shared" ref="X22:BW22" si="19">IF(X21=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Z22" t="str">
@@ -6278,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:77">
+    <row r="23" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G23" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","herbata")attributeContain("pic_jesc","pić")attributeContain("smak","słodki")attributeContain("smak","gorzki")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","czajnik")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","lekko")attributeContain("bogato","tak, na bogato")attributeContain("bogato","bieda")</v>
@@ -6560,7 +6626,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="24" spans="6:77">
+    <row r="24" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>16</v>
       </c>
@@ -6627,7 +6693,7 @@
         <v/>
       </c>
       <c r="X24" t="str">
-        <f t="shared" ref="X24:BY24" si="22">IF(X23=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
+        <f t="shared" ref="X24:BX24" si="22">IF(X23=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Y24" t="str">
@@ -6828,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:77">
+    <row r="25" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G25" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","jajka")attributeContain("skladniki","masło")attributeContain("skladniki","olej")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","tak")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","lekko")attributeContain("glodny","średnio")attributeContain("bogato","bieda")</v>
@@ -7114,7 +7180,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="26" spans="6:77">
+    <row r="26" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>48</v>
       </c>
@@ -7376,7 +7442,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="6:77">
+    <row r="27" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G27" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","jajka")attributeContain("skladniki","kiełbasa")attributeContain("skladniki","olej")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","10 min")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","patelnia")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","tak")attributeContain("glodny","średnio")attributeContain("bogato","tak, na bogato")</v>
@@ -7654,7 +7720,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="6:77">
+    <row r="28" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>65</v>
       </c>
@@ -7726,7 +7792,7 @@
         <v/>
       </c>
       <c r="X28" t="str">
-        <f t="shared" ref="X28:BY28" si="26">IF(X27=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
+        <f t="shared" ref="X28:BX28" si="26">IF(X27=1,CONCATENATE($A$6,X$4,$B$6,X$5,$C$6),"")</f>
         <v/>
       </c>
       <c r="Y28" t="str">
@@ -7919,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:77">
+    <row r="29" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G29" t="str">
         <f t="shared" si="2"/>
         <v>attributeContain("skladniki","jajka")attributeContain("pic_jesc","jeść")attributeContain("smak","słony")attributeContain("czas","30 min")attributeContain("czas","60 min")attributeContain("czas","więcej")attributeContain("sprzet","garnek")attributeContain("cieplo_zimno","ciepło")attributeContain("wegetarianskie","nie")attributeContain("zmywanie","nie")attributeContain("glodny","średnio")attributeContain("bogato","bieda")</v>
@@ -8197,7 +8263,7 @@
         <v>attributeContain("bogato","bieda")</v>
       </c>
     </row>
-    <row r="30" spans="6:77">
+    <row r="30" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>36</v>
       </c>
@@ -8478,7 +8544,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="6:77">
+    <row r="31" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G31" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8756,7 +8822,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="6:77">
+    <row r="32" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>76</v>
       </c>
@@ -9037,7 +9103,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:77">
+    <row r="33" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G33" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9315,7 +9381,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:77">
+    <row r="34" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>47</v>
       </c>
@@ -9596,7 +9662,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:77">
+    <row r="35" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G35" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9874,7 +9940,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:77">
+    <row r="36" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>46</v>
       </c>
@@ -10155,7 +10221,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:77">
+    <row r="37" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G37" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -10433,7 +10499,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="6:77">
+    <row r="38" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>49</v>
       </c>
@@ -10714,7 +10780,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="6:77">
+    <row r="39" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G39" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -10992,7 +11058,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="6:77">
+    <row r="40" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>64</v>
       </c>
@@ -11273,7 +11339,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="6:77">
+    <row r="41" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G41" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11551,7 +11617,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="6:77">
+    <row r="42" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>35</v>
       </c>
@@ -11832,7 +11898,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="6:77">
+    <row r="43" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G43" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12110,7 +12176,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="6:77">
+    <row r="44" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>27</v>
       </c>
@@ -12391,7 +12457,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="6:77">
+    <row r="45" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G45" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12669,7 +12735,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="6:77">
+    <row r="46" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>26</v>
       </c>
@@ -12950,7 +13016,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="6:77">
+    <row r="47" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G47" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13228,7 +13294,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="6:77">
+    <row r="48" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>67</v>
       </c>
@@ -13509,7 +13575,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="6:77">
+    <row r="49" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G49" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13787,7 +13853,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="6:77">
+    <row r="50" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>71</v>
       </c>
@@ -14068,7 +14134,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="6:77">
+    <row r="51" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G51" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -14346,7 +14412,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="6:77">
+    <row r="52" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>73</v>
       </c>
@@ -14627,7 +14693,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="6:77">
+    <row r="53" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G53" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -14905,7 +14971,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="6:77">
+    <row r="54" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>33</v>
       </c>
@@ -15182,7 +15248,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="6:77">
+    <row r="55" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G55" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -15456,7 +15522,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="6:77">
+    <row r="56" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>34</v>
       </c>
@@ -15733,7 +15799,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="6:77">
+    <row r="57" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G57" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16007,7 +16073,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="6:77">
+    <row r="58" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>28</v>
       </c>
@@ -16284,7 +16350,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="6:77">
+    <row r="59" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G59" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16624,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="6:77">
+    <row r="60" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>77</v>
       </c>
@@ -16835,7 +16901,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="6:77">
+    <row r="61" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G61" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17109,7 +17175,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="6:77">
+    <row r="62" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>40</v>
       </c>
@@ -17386,7 +17452,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="6:77">
+    <row r="63" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G63" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17660,7 +17726,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="6:77">
+    <row r="64" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>11</v>
       </c>
@@ -17937,7 +18003,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="6:77">
+    <row r="65" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G65" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18211,7 +18277,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="6:77">
+    <row r="66" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>54</v>
       </c>
@@ -18488,7 +18554,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="6:77">
+    <row r="67" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G67" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18762,7 +18828,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="6:77">
+    <row r="68" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>57</v>
       </c>
@@ -19039,7 +19105,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="6:77">
+    <row r="69" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G69" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -19313,7 +19379,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="6:77">
+    <row r="70" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>42</v>
       </c>
@@ -19590,7 +19656,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="6:77">
+    <row r="71" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G71" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -19864,7 +19930,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="6:77">
+    <row r="72" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>63</v>
       </c>
@@ -20141,7 +20207,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="6:77">
+    <row r="73" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G73" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -20415,7 +20481,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="6:77">
+    <row r="74" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>58</v>
       </c>
@@ -20692,7 +20758,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="6:77">
+    <row r="75" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G75" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -20966,7 +21032,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="6:77">
+    <row r="76" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>53</v>
       </c>
@@ -21243,7 +21309,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="6:77">
+    <row r="77" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G77" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -21517,7 +21583,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="6:77">
+    <row r="78" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>61</v>
       </c>
@@ -21794,7 +21860,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="6:77">
+    <row r="79" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G79" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -22068,7 +22134,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="6:77">
+    <row r="80" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>38</v>
       </c>
@@ -22345,7 +22411,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="6:77">
+    <row r="81" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G81" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -22619,7 +22685,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="6:77">
+    <row r="82" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>12</v>
       </c>
@@ -22896,7 +22962,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="6:77">
+    <row r="83" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G83" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -23170,7 +23236,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="6:77">
+    <row r="84" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>41</v>
       </c>
@@ -23447,7 +23513,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="6:77">
+    <row r="85" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G85" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -23721,7 +23787,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="6:77">
+    <row r="86" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>60</v>
       </c>
@@ -23998,7 +24064,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="6:77">
+    <row r="87" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G87" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -24272,7 +24338,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="6:77">
+    <row r="88" spans="6:77" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>30</v>
       </c>
@@ -24553,7 +24619,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="6:77">
+    <row r="89" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G89" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -24831,7 +24897,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="6:77">
+    <row r="90" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G90" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25109,7 +25175,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="6:77">
+    <row r="91" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G91" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25387,7 +25453,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="6:77">
+    <row r="92" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G92" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25665,7 +25731,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="6:77">
+    <row r="93" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G93" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -25943,7 +26009,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="6:77">
+    <row r="94" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G94" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -26221,7 +26287,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="6:77">
+    <row r="95" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G95" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -26499,7 +26565,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="6:77">
+    <row r="96" spans="6:77" x14ac:dyDescent="0.25">
       <c r="G96" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -26777,7 +26843,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="7:77">
+    <row r="97" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G97" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -27055,7 +27121,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="7:77">
+    <row r="98" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G98" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -27333,7 +27399,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="7:77">
+    <row r="99" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G99" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -27611,7 +27677,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="7:77">
+    <row r="100" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G100" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -27889,7 +27955,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="7:77">
+    <row r="101" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G101" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -28167,7 +28233,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="7:77">
+    <row r="102" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G102" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -28445,7 +28511,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="7:77">
+    <row r="103" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G103" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -28723,7 +28789,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="7:77">
+    <row r="104" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G104" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -29001,7 +29067,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="7:77">
+    <row r="105" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G105" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -29279,7 +29345,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="7:77">
+    <row r="106" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G106" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -29557,7 +29623,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="7:77">
+    <row r="107" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G107" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -29835,7 +29901,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="7:77">
+    <row r="108" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G108" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30113,7 +30179,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="7:77">
+    <row r="109" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G109" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30391,7 +30457,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="7:77">
+    <row r="110" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G110" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30669,7 +30735,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="7:77">
+    <row r="111" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G111" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -30947,7 +31013,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="7:77">
+    <row r="112" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G112" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -31225,7 +31291,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="7:77">
+    <row r="113" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G113" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -31503,7 +31569,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="7:77">
+    <row r="114" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G114" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -31781,7 +31847,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="7:77">
+    <row r="115" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G115" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -32059,7 +32125,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="7:77">
+    <row r="116" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G116" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -32337,7 +32403,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="7:77">
+    <row r="117" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G117" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -32615,7 +32681,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="7:77">
+    <row r="118" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G118" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -32893,7 +32959,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="7:77">
+    <row r="119" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G119" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -33171,7 +33237,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="7:77">
+    <row r="120" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G120" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -33449,7 +33515,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="7:77">
+    <row r="121" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G121" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -33727,7 +33793,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="7:77">
+    <row r="122" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G122" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -34005,7 +34071,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="7:77">
+    <row r="123" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G123" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -34283,7 +34349,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="7:77">
+    <row r="124" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G124" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -34561,7 +34627,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="7:77">
+    <row r="125" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G125" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -34839,7 +34905,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="7:77">
+    <row r="126" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G126" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -35117,7 +35183,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="7:77">
+    <row r="127" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G127" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -35395,7 +35461,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="7:77">
+    <row r="128" spans="7:77" x14ac:dyDescent="0.25">
       <c r="G128" t="str">
         <f t="shared" si="72"/>
         <v/>
@@ -35673,7 +35739,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="8:77">
+    <row r="129" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H129" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -35947,7 +36013,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="8:77">
+    <row r="130" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H130" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -36221,7 +36287,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="8:77">
+    <row r="131" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H131" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -36495,7 +36561,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="8:77">
+    <row r="132" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H132" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -36769,7 +36835,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="8:77">
+    <row r="133" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H133" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -37043,7 +37109,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="8:77">
+    <row r="134" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H134" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -37317,7 +37383,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="8:77">
+    <row r="135" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H135" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -37591,7 +37657,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="8:77">
+    <row r="136" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H136" t="str">
         <f t="shared" ref="H136:W151" si="141">IF(H135=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -37865,7 +37931,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="8:77">
+    <row r="137" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H137" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38139,7 +38205,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="8:77">
+    <row r="138" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H138" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38413,7 +38479,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="8:77">
+    <row r="139" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H139" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38687,7 +38753,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="8:77">
+    <row r="140" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H140" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -38961,7 +39027,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="8:77">
+    <row r="141" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H141" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -39235,7 +39301,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="8:77">
+    <row r="142" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H142" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -39509,7 +39575,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="8:77">
+    <row r="143" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H143" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -39783,7 +39849,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="8:77">
+    <row r="144" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H144" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -40057,7 +40123,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="8:77">
+    <row r="145" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H145" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -40331,7 +40397,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="8:77">
+    <row r="146" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H146" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -40605,7 +40671,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="8:77">
+    <row r="147" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H147" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -40879,7 +40945,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="8:77">
+    <row r="148" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H148" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41153,7 +41219,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="8:77">
+    <row r="149" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H149" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41427,7 +41493,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="8:77">
+    <row r="150" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H150" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41701,7 +41767,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="8:77">
+    <row r="151" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H151" t="str">
         <f t="shared" si="141"/>
         <v/>
@@ -41975,7 +42041,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="8:77">
+    <row r="152" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H152" t="str">
         <f t="shared" ref="H152:W167" si="158">IF(H151=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -42249,7 +42315,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="8:77">
+    <row r="153" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H153" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -42523,7 +42589,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="8:77">
+    <row r="154" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H154" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -42797,7 +42863,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="8:77">
+    <row r="155" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H155" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43071,7 +43137,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="8:77">
+    <row r="156" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H156" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43345,7 +43411,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="8:77">
+    <row r="157" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H157" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43619,7 +43685,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="8:77">
+    <row r="158" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H158" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -43897,7 +43963,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="8:77">
+    <row r="159" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H159" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -44175,7 +44241,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="8:77">
+    <row r="160" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H160" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -44453,7 +44519,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="8:77">
+    <row r="161" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H161" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -44731,7 +44797,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="8:77">
+    <row r="162" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H162" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -45009,7 +45075,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="8:77">
+    <row r="163" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H163" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -45287,7 +45353,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="8:77">
+    <row r="164" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H164" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -45565,7 +45631,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="8:77">
+    <row r="165" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H165" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -45843,7 +45909,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="8:77">
+    <row r="166" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H166" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -46121,7 +46187,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="8:77">
+    <row r="167" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H167" t="str">
         <f t="shared" si="158"/>
         <v/>
@@ -46399,7 +46465,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="8:77">
+    <row r="168" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H168" t="str">
         <f t="shared" ref="H168:W183" si="175">IF(H167=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -46677,7 +46743,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="8:77">
+    <row r="169" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H169" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -46955,7 +47021,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="8:77">
+    <row r="170" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H170" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -47233,7 +47299,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="8:77">
+    <row r="171" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H171" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -47511,7 +47577,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="8:77">
+    <row r="172" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H172" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -47789,7 +47855,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="8:77">
+    <row r="173" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H173" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -48067,7 +48133,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="8:77">
+    <row r="174" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H174" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -48345,7 +48411,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="8:77">
+    <row r="175" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H175" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -48623,7 +48689,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="8:77">
+    <row r="176" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H176" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -48901,7 +48967,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="8:77">
+    <row r="177" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H177" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -49179,7 +49245,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="8:77">
+    <row r="178" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H178" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -49457,7 +49523,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="8:77">
+    <row r="179" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H179" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -49735,7 +49801,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="8:77">
+    <row r="180" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H180" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -50013,7 +50079,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="8:77">
+    <row r="181" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H181" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -50291,7 +50357,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="8:77">
+    <row r="182" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H182" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -50569,7 +50635,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="8:77">
+    <row r="183" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H183" t="str">
         <f t="shared" si="175"/>
         <v/>
@@ -50847,7 +50913,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="8:77">
+    <row r="184" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H184" t="str">
         <f t="shared" ref="H184:W199" si="192">IF(H183=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -51125,7 +51191,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="8:77">
+    <row r="185" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H185" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -51403,7 +51469,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="8:77">
+    <row r="186" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H186" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -51681,7 +51747,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="8:77">
+    <row r="187" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H187" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -51959,7 +52025,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="8:77">
+    <row r="188" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H188" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -52237,7 +52303,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="8:77">
+    <row r="189" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H189" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -52515,7 +52581,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="8:77">
+    <row r="190" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H190" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -52793,7 +52859,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="8:77">
+    <row r="191" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H191" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53071,7 +53137,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="8:77">
+    <row r="192" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H192" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53349,7 +53415,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="8:77">
+    <row r="193" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H193" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53627,7 +53693,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="8:77">
+    <row r="194" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H194" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -53905,7 +53971,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="8:77">
+    <row r="195" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H195" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -54183,7 +54249,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="8:77">
+    <row r="196" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H196" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -54461,7 +54527,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="8:77">
+    <row r="197" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H197" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -54739,7 +54805,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="8:77">
+    <row r="198" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H198" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -55017,7 +55083,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="8:77">
+    <row r="199" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H199" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -55295,7 +55361,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="8:77">
+    <row r="200" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H200" t="str">
         <f t="shared" ref="H200:W215" si="209">IF(H199=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -55573,7 +55639,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="8:77">
+    <row r="201" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H201" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -55851,7 +55917,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="8:77">
+    <row r="202" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H202" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56129,7 +56195,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="8:77">
+    <row r="203" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H203" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56407,7 +56473,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="8:77">
+    <row r="204" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H204" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56685,7 +56751,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="8:77">
+    <row r="205" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H205" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -56963,7 +57029,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="8:77">
+    <row r="206" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H206" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -57241,7 +57307,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="8:77">
+    <row r="207" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H207" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -57519,7 +57585,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="8:77">
+    <row r="208" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H208" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -57797,7 +57863,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="8:77">
+    <row r="209" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H209" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58075,7 +58141,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="8:77">
+    <row r="210" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H210" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58353,7 +58419,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="8:77">
+    <row r="211" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H211" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58631,7 +58697,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="8:77">
+    <row r="212" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H212" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -58909,7 +58975,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="8:77">
+    <row r="213" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H213" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -59187,7 +59253,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="8:77">
+    <row r="214" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H214" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -59465,7 +59531,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="8:77">
+    <row r="215" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H215" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -59743,7 +59809,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="8:77">
+    <row r="216" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H216" t="str">
         <f t="shared" ref="H216:W231" si="226">IF(H215=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -60021,7 +60087,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="8:77">
+    <row r="217" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H217" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -60299,7 +60365,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="8:77">
+    <row r="218" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H218" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -60577,7 +60643,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="8:77">
+    <row r="219" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H219" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -60855,7 +60921,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="8:77">
+    <row r="220" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H220" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61133,7 +61199,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="8:77">
+    <row r="221" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H221" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61411,7 +61477,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="8:77">
+    <row r="222" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H222" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61689,7 +61755,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="8:77">
+    <row r="223" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H223" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -61967,7 +62033,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="8:77">
+    <row r="224" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H224" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -62245,7 +62311,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="8:77">
+    <row r="225" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H225" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -62523,7 +62589,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="8:77">
+    <row r="226" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H226" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -62801,7 +62867,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="8:77">
+    <row r="227" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H227" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63079,7 +63145,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="8:77">
+    <row r="228" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H228" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63357,7 +63423,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="8:77">
+    <row r="229" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H229" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63635,7 +63701,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="8:77">
+    <row r="230" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H230" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -63913,7 +63979,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="8:77">
+    <row r="231" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H231" t="str">
         <f t="shared" si="226"/>
         <v/>
@@ -64191,7 +64257,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="8:77">
+    <row r="232" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H232" t="str">
         <f t="shared" ref="H232:W247" si="243">IF(H231=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -64469,7 +64535,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="8:77">
+    <row r="233" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H233" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -64747,7 +64813,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="8:77">
+    <row r="234" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H234" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -65025,7 +65091,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="8:77">
+    <row r="235" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H235" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -65303,7 +65369,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="8:77">
+    <row r="236" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H236" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -65581,7 +65647,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="8:77">
+    <row r="237" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H237" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -65859,7 +65925,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="8:77">
+    <row r="238" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H238" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66137,7 +66203,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="8:77">
+    <row r="239" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H239" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66415,7 +66481,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="8:77">
+    <row r="240" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H240" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66693,7 +66759,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="8:77">
+    <row r="241" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H241" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -66971,7 +67037,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="8:77">
+    <row r="242" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H242" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -67249,7 +67315,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="8:77">
+    <row r="243" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H243" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -67527,7 +67593,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="8:77">
+    <row r="244" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H244" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -67805,7 +67871,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="8:77">
+    <row r="245" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H245" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -68083,7 +68149,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="8:77">
+    <row r="246" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H246" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -68361,7 +68427,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="8:77">
+    <row r="247" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H247" t="str">
         <f t="shared" si="243"/>
         <v/>
@@ -68639,7 +68705,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="8:77">
+    <row r="248" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H248" t="str">
         <f t="shared" ref="H248:W258" si="260">IF(H247=1,CONCATENATE($A$6,H$4,$B$6,H$5,$C$6),"")</f>
         <v/>
@@ -68917,7 +68983,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="8:77">
+    <row r="249" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H249" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -69195,7 +69261,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="8:77">
+    <row r="250" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H250" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -69473,7 +69539,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="8:77">
+    <row r="251" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H251" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -69751,7 +69817,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="8:77">
+    <row r="252" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H252" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -70029,7 +70095,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="8:77">
+    <row r="253" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H253" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -70307,7 +70373,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="8:77">
+    <row r="254" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H254" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -70585,7 +70651,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="8:77">
+    <row r="255" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H255" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -70863,7 +70929,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="8:77">
+    <row r="256" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H256" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -71141,7 +71207,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="8:77">
+    <row r="257" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H257" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -71419,7 +71485,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="8:77">
+    <row r="258" spans="8:77" x14ac:dyDescent="0.25">
       <c r="H258" t="str">
         <f t="shared" si="260"/>
         <v/>
@@ -71714,7 +71780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
